--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AD/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.04670000000002</v>
+        <v>-21.13570000000001</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.296700000000008</v>
+        <v>-8.189300000000005</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.666599999999997</v>
+        <v>-8.761699999999996</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.217</v>
+        <v>-20.18179999999999</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.432199999999998</v>
+        <v>-8.498399999999997</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.20740000000001</v>
+        <v>-21.29790000000001</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-20.48409999999999</v>
+        <v>-20.65229999999999</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.435300000000005</v>
+        <v>-8.346500000000002</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.11499999999999</v>
+        <v>-20.30719999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -709,7 +709,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.241800000000001</v>
+        <v>-8.248400000000004</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.15110000000003</v>
+        <v>-22.19360000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.48649999999999</v>
+        <v>-20.49449999999998</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.254099999999996</v>
+        <v>-8.153599999999997</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
